--- a/BaoCao_SystemTest_Statistics.xlsx
+++ b/BaoCao_SystemTest_Statistics.xlsx
@@ -42,17 +42,17 @@
   </si>
   <si>
     <t>1. Menu -&gt; Báo cáo chi tiết
-2. Nhập ngày 2025-10-01 - 2025-12-31
+2. Nhập ngày 2025-10-01 - 2025-12-31 (Dùng JS)
 3. Bấm Xem kết quả</t>
   </si>
   <si>
     <t>Range: 2025-10-01 đến 2025-12-31</t>
   </si>
   <si>
-    <t>Hiển thị doanh thu và danh sách sản phẩm</t>
-  </si>
-  <si>
-    <t>Doanh thu hiển thị: 9,700,000 đ | Số dòng SP: 2</t>
+    <t>Hiển thị doanh thu và danh sách sản phẩm bán chạy</t>
+  </si>
+  <si>
+    <t>Doanh thu hiển thị: 2,500,000 đ | Số dòng SP: 1</t>
   </si>
   <si>
     <t>PASS</t>
@@ -64,15 +64,15 @@
     <t>Xuất báo cáo Excel</t>
   </si>
   <si>
-    <t>1. Giữ nguyên bộ lọc ngày (2025-10-01 - 2025-12-31)
-2. Bấm nút 'Xuất file Excel'
-3. Kiểm tra không bị lỗi server</t>
+    <t>1. Điều hướng lại
+2. Set lại ngày (2025-10-01 - 2025-12-31)
+3. Bấm nút 'Xuất file Excel'</t>
   </si>
   <si>
     <t>Action: Click Export</t>
   </si>
   <si>
-    <t>Trình duyệt tải file, không báo lỗi</t>
+    <t>Server xử lý request và trình duyệt tải file (.xlsx), không báo lỗi Server (500)</t>
   </si>
   <si>
     <t>URL hiện tại: http://localhost:8080/ShopDuck/admin/dashboard/index.jsp | Có lỗi server: false</t>
@@ -161,9 +161,9 @@
   <cols>
     <col min="1" max="1" width="11.96875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="21.76953125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="48.1953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="44.171875" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="32.65234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="39.03125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="68.11328125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="85.828125" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
